--- a/Python ETL/usuario_mock.xlsx
+++ b/Python ETL/usuario_mock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolineamarante/Documents/gerenciamento-de-salas-V0.1/Python ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B755333-E4C4-5640-959D-95B9BCF0C2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A009FDA-DBD0-614C-8415-5218C821A383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14920" xr2:uid="{34CB7556-4D6D-0B47-B63C-C260E26F6C7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>email</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>coordenador@gmail.com</t>
+  </si>
+  <si>
+    <t>admin@fatec.com</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C5CB2-9692-4A4A-AE42-AFBCC0712D3F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,6 +477,14 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -489,6 +500,7 @@
     <hyperlink ref="A4" r:id="rId8" xr:uid="{11BAD49D-5C80-5C43-A237-E4B2F37E77A4}"/>
     <hyperlink ref="A5" r:id="rId9" xr:uid="{CCEDC5FB-7682-244B-BF39-32B5D33AF1BB}"/>
     <hyperlink ref="A6" r:id="rId10" xr:uid="{3F8CF56B-B76A-FF4C-BBC3-AB7E1C8B7B64}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{11DFCFE0-AA02-5F40-B1BD-0C8322C3097D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Python ETL/usuario_mock.xlsx
+++ b/Python ETL/usuario_mock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolineamarante/Documents/gerenciamento-de-salas-V0.1/Python ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A009FDA-DBD0-614C-8415-5218C821A383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE613A-A7F1-0943-AC52-89385C1638FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14920" xr2:uid="{34CB7556-4D6D-0B47-B63C-C260E26F6C7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>admin@fatec.com</t>
+  </si>
+  <si>
+    <t>isaac@gmail.com</t>
+  </si>
+  <si>
+    <t>Password123$</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C5CB2-9692-4A4A-AE42-AFBCC0712D3F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -488,6 +494,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{47829436-A4F6-0446-82CA-6E84DEF7306E}"/>
@@ -501,6 +515,7 @@
     <hyperlink ref="A5" r:id="rId9" xr:uid="{CCEDC5FB-7682-244B-BF39-32B5D33AF1BB}"/>
     <hyperlink ref="A6" r:id="rId10" xr:uid="{3F8CF56B-B76A-FF4C-BBC3-AB7E1C8B7B64}"/>
     <hyperlink ref="B7" r:id="rId11" xr:uid="{11DFCFE0-AA02-5F40-B1BD-0C8322C3097D}"/>
+    <hyperlink ref="A8" r:id="rId12" xr:uid="{2F789AA3-E544-BB42-91A7-AD3E27312683}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Python ETL/usuario_mock.xlsx
+++ b/Python ETL/usuario_mock.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolineamarante/Documents/gerenciamento-de-salas-V0.1/Python ETL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB9AC9-6096-EB40-9EE9-5D54FCCAD77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -28,24 +34,38 @@
     <t>Password@123</t>
   </si>
   <si>
-    <t>aluno2@gmail.com</t>
-  </si>
-  <si>
     <t>professor1@gmail.com</t>
   </si>
   <si>
-    <t>professor2@gmail.com</t>
-  </si>
-  <si>
     <t>coordenador@gmail.com</t>
+  </si>
+  <si>
+    <t>administrator1@fatec.sp.gov.br</t>
+  </si>
+  <si>
+    <t>administrator2@fatec.sp.gov.br</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>aluno</t>
+  </si>
+  <si>
+    <t>professor</t>
+  </si>
+  <si>
+    <t>coordenador</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +79,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,29 +113,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -118,10 +157,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -159,71 +198,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -251,7 +290,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -274,11 +313,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -287,13 +326,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -303,7 +342,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -312,7 +351,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -321,7 +360,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -329,10 +368,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -397,69 +436,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+    <row r="2" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{23B02103-D9A0-F048-B63D-16F727F93300}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{971B3FCE-D59C-C845-8CD3-81BA1CB4C13D}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{5ED3BFB0-8F91-394B-A682-48673A8ADAF4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Python ETL/usuario_mock.xlsx
+++ b/Python ETL/usuario_mock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolineamarante/Documents/gerenciamento-de-salas-V0.1/Python ETL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\gerenciamento-de-salas-V0.1\Python ETL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB9AC9-6096-EB40-9EE9-5D54FCCAD77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC9F0FE-FBFC-4EF5-929C-A510EB56B4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,18 +75,23 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,31 +120,102 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aharoni"/>
+        <charset val="177"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Aharoni"/>
+        <charset val="177"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Aharoni"/>
+        <charset val="177"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Aharoni"/>
+        <charset val="177"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Aharoni"/>
+        <charset val="177"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -150,6 +226,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82784D4B-A787-48F4-8B9F-3232D5FE215D}" name="Tabela1" displayName="Tabela1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C6" xr:uid="{82784D4B-A787-48F4-8B9F-3232D5FE215D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{08F46135-D8DD-440A-9E7B-D2A7B9CD0D09}" name="email" dataDxfId="2" dataCellStyle="Hiperlink"/>
+    <tableColumn id="2" xr3:uid="{123EA1D0-7E32-45F8-8D58-AA814E57942B}" name="senha" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E5A03E2E-8A94-4513-8E51-83D6F010941E}" name="role" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,78 +531,79 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -525,5 +614,8 @@
     <hyperlink ref="A6" r:id="rId3" xr:uid="{5ED3BFB0-8F91-394B-A682-48673A8ADAF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>